--- a/Data/Advantage/UAT Invoice/1200410593069/Shipping_SUPERVALU CENTRAL REGION.xlsx
+++ b/Data/Advantage/UAT Invoice/1200410593069/Shipping_SUPERVALU CENTRAL REGION.xlsx
@@ -759,6 +759,180 @@
         <x:v>450</x:v>
       </x:c>
     </x:row>
+    <x:row r="16" spans="1:10">
+      <x:c r="B16" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="n">
+        <x:v>620</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="n">
+        <x:v>260</x:v>
+      </x:c>
+      <x:c r="F16" s="0" t="n">
+        <x:v>310</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="n">
+        <x:v>820</x:v>
+      </x:c>
+      <x:c r="H16" s="0" t="n">
+        <x:v>590</x:v>
+      </x:c>
+      <x:c r="I16" s="0" t="n">
+        <x:v>420</x:v>
+      </x:c>
+      <x:c r="J16" s="0" t="n">
+        <x:v>390</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:10">
+      <x:c r="B17" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="n">
+        <x:v>620</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="n">
+        <x:v>260</x:v>
+      </x:c>
+      <x:c r="F17" s="0" t="n">
+        <x:v>310</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="n">
+        <x:v>820</x:v>
+      </x:c>
+      <x:c r="H17" s="0" t="n">
+        <x:v>590</x:v>
+      </x:c>
+      <x:c r="I17" s="0" t="n">
+        <x:v>420</x:v>
+      </x:c>
+      <x:c r="J17" s="0" t="n">
+        <x:v>390</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:10">
+      <x:c r="B18" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="n">
+        <x:v>672</x:v>
+      </x:c>
+      <x:c r="E18" s="0" t="n">
+        <x:v>1428</x:v>
+      </x:c>
+      <x:c r="F18" s="0" t="n">
+        <x:v>2352</x:v>
+      </x:c>
+      <x:c r="G18" s="0" t="n">
+        <x:v>5096</x:v>
+      </x:c>
+      <x:c r="H18" s="0" t="n">
+        <x:v>8607</x:v>
+      </x:c>
+      <x:c r="I18" s="0" t="n">
+        <x:v>2608</x:v>
+      </x:c>
+      <x:c r="J18" s="0" t="n">
+        <x:v>3523</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:10">
+      <x:c r="B19" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="n">
+        <x:v>672</x:v>
+      </x:c>
+      <x:c r="E19" s="0" t="n">
+        <x:v>1428</x:v>
+      </x:c>
+      <x:c r="F19" s="0" t="n">
+        <x:v>2352</x:v>
+      </x:c>
+      <x:c r="G19" s="0" t="n">
+        <x:v>5096</x:v>
+      </x:c>
+      <x:c r="H19" s="0" t="n">
+        <x:v>8607</x:v>
+      </x:c>
+      <x:c r="I19" s="0" t="n">
+        <x:v>2608</x:v>
+      </x:c>
+      <x:c r="J19" s="0" t="n">
+        <x:v>3523</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:10">
+      <x:c r="B20" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="n">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="E20" s="0" t="n">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="F20" s="0" t="n">
+        <x:v>390</x:v>
+      </x:c>
+      <x:c r="G20" s="0" t="n">
+        <x:v>1150</x:v>
+      </x:c>
+      <x:c r="H20" s="0" t="n">
+        <x:v>860</x:v>
+      </x:c>
+      <x:c r="I20" s="0" t="n">
+        <x:v>420</x:v>
+      </x:c>
+      <x:c r="J20" s="0" t="n">
+        <x:v>450</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:10">
+      <x:c r="B21" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="n">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="E21" s="0" t="n">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="F21" s="0" t="n">
+        <x:v>390</x:v>
+      </x:c>
+      <x:c r="G21" s="0" t="n">
+        <x:v>1150</x:v>
+      </x:c>
+      <x:c r="H21" s="0" t="n">
+        <x:v>860</x:v>
+      </x:c>
+      <x:c r="I21" s="0" t="n">
+        <x:v>420</x:v>
+      </x:c>
+      <x:c r="J21" s="0" t="n">
+        <x:v>450</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
